--- a/medicine/Enfance/Le_Journal_de_Gurty/Le_Journal_de_Gurty.xlsx
+++ b/medicine/Enfance/Le_Journal_de_Gurty/Le_Journal_de_Gurty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal de Gurty est une série en plusieurs tomes de l’écrivain aixois Bertrand Santini. Il raconte les vacances d'une petite chienne nommée Gurty qui décrit avec humour le monde qui l’entoure.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Refusé à l’origine par 17 maisons d'édition[1], Le Journal de Gurty est accepté en 2015 par les Éditions Sarbacane et devient un succès littéraire pour la jeunesse, avec 500 000 exemplaires vendus[2],[3]. Depuis lors, plusieurs enfants ont témoigné leur intérêt pour Gurty[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refusé à l’origine par 17 maisons d'édition, Le Journal de Gurty est accepté en 2015 par les Éditions Sarbacane et devient un succès littéraire pour la jeunesse, avec 500 000 exemplaires vendus,. Depuis lors, plusieurs enfants ont témoigné leur intérêt pour Gurty,.
 </t>
         </is>
       </c>
@@ -545,14 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les animaux
-Héroïne de la série, Gurty est une chienne qui vit à Paris[6], mais ne cesse de voyager avec son maître Gaspard à qui elle est très attachée. Ils se rendent toujours à Aix-en-Provence (ville dont l’auteur de la série est originaire), hormis dans le tome 10, Vacances en Angleterre. Le vrai nom de Gurty est Gertrude.
+          <t>Les animaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Héroïne de la série, Gurty est une chienne qui vit à Paris, mais ne cesse de voyager avec son maître Gaspard à qui elle est très attachée. Ils se rendent toujours à Aix-en-Provence (ville dont l’auteur de la série est originaire), hormis dans le tome 10, Vacances en Angleterre. Le vrai nom de Gurty est Gertrude.
 Fleur, une autre chienne, est la meilleure amie de Gurty. Elle habite à Aix-en-Provence. Son maître se prénomme Pépé Narbier. Fleur est extrêmement naïve car elle croit à tout ce qu’on lui dit.
 Tête de fesses, de son vrai nom Jean-Jacques, est un chat qui habite dans une maison à Aix-en-Provence avec ses maîtres, la famille Caboufigues. C’est l’« ennemi préféré » de Gurty.
 L’Écureuil qui fait hi hi, lui aussi habitant d’Aix-en-Provence, est un écureuil qui agace Gurty et son amie Fleur, parce qu’il essaie de les embobiner pour obtenir d’elles des friandises. Par exemple, dans le tome 7, Le Fantôme de Barbapuces, il fait semblant d’être le fantôme en question.
-Foggy, un chien de la même race que Gurty, devient son ami dans le tome 10, Vacances en Angleterre.
-Les humains
-Gaspard, le maître de Gurty, est un homme qui habite et travaille à Paris.
+Foggy, un chien de la même race que Gurty, devient son ami dans le tome 10, Vacances en Angleterre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Journal_de_Gurty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Journal_de_Gurty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les humains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gaspard, le maître de Gurty, est un homme qui habite et travaille à Paris.
 Pépé Narbier, le maître de Fleur, possède un potager magique auquel il est tient énormément. C’est un très bon ami de Gaspard.
 Marian est l’amoureuse de Gaspard dans le tome 10, Vacances en Angleterre.
 Cassidy et Donovan sont deux enfants de la famille Caboufigues. Ils se montrent souvent stupides.
@@ -560,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Le_Journal_de_Gurty</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Journal_de_Gurty</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Portrait de Gurty</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gurty est une chienne intelligente, gentille et drôle, qui se lie facilement aux chiens comme aux humains. 
 Son plat préféré est constitué de saucisses grillées. 
@@ -595,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Le_Journal_de_Gurty</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Journal_de_Gurty</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des volumes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1. Vacances en Provence, 2015.
 2. Parée pour l'hiver, 2016.
